--- a/Summary for bar charts.xlsx
+++ b/Summary for bar charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2160" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Australia and New Zealand</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Avg 2015-2018</t>
   </si>
 </sst>
 </file>
@@ -110,8 +113,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -120,14 +125,212 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Australia and New Zealand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Central and Eastern Europe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eastern Asia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Latin America and Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and Northern Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Southeastern Asia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Southern Asia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Western Europe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.301375006249998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.395750000112063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.604785699160707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.03859659392045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.364198680131572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.197125001999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.375239583802077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.59410714028571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.161548854023275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.710714289952375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2107759320"/>
+        <c:axId val="2107854968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2107759320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2107854968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107854968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2107759320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -463,7 +666,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -479,8 +682,11 @@
       <c r="E1" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -496,8 +702,12 @@
       <c r="E2" s="1">
         <v>7.298</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:E2)</f>
+        <v>7.301375006249998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -513,8 +723,12 @@
       <c r="E3" s="1">
         <v>5.4694482758620602</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F11" si="0">AVERAGE(B3:E3)</f>
+        <v>5.3957500001120628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,8 +744,12 @@
       <c r="E4" s="1">
         <v>5.5221428571428497</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6047856991607068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,8 +765,12 @@
       <c r="E5" s="1">
         <v>5.9501363636363598</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0385965939204498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -564,8 +786,12 @@
       <c r="E6" s="1">
         <v>5.2941578947368404</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3641986801315724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -581,8 +807,12 @@
       <c r="E7" s="1">
         <v>7.1069999999999904</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1971250019999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,8 +828,12 @@
       <c r="E8" s="1">
         <v>5.3997499999999903</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3752395838020774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -615,8 +849,12 @@
       <c r="E9" s="1">
         <v>4.60385714285714</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5941071402857103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -632,8 +870,12 @@
       <c r="E10" s="1">
         <v>4.1950256410256399</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.161548854023275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -648,11 +890,16 @@
       </c>
       <c r="E11" s="1">
         <v>6.7638571428571401</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7107142899523753</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
